--- a/biology/Biologie cellulaire et moléculaire/Anticorps_anti-Saccharomyces_cerevisiae/Anticorps_anti-Saccharomyces_cerevisiae.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anticorps_anti-Saccharomyces_cerevisiae/Anticorps_anti-Saccharomyces_cerevisiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anticorps anti-Saccharomyces cerevisiæ (« Anti–Saccharomyces cerevisiae antibodies » ou ASCA, en anglais) sont un outil de diagnostic en médecine pour déterminer le type d'une maladie gastro-intestinale de type colite.
 Il s'agit d'anticorps dirigés vers des éléments de la paroi des cellules de Saccharomyces cerevisiae. 
-Un résultat positif à ce test (présence d'anticorps) permet de montrer le caractère biotique de la maladie, comme dans le cas de la maladie de Crohn[1], et de la séparer des autres types d'étiologie, comme par exemple le caractère auto-immun comme dans le cas de la maladie cœliaque.
+Un résultat positif à ce test (présence d'anticorps) permet de montrer le caractère biotique de la maladie, comme dans le cas de la maladie de Crohn, et de la séparer des autres types d'étiologie, comme par exemple le caractère auto-immun comme dans le cas de la maladie cœliaque.
 </t>
         </is>
       </c>
